--- a/resources/xlsx_templates/fond.xlsx
+++ b/resources/xlsx_templates/fond.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbrandt/code/birddog/resources/xlsx_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97211AB-8794-2B4C-BFC8-5E81A000B6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979D752F-529C-7547-BF95-08F7C57CEEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5660" yWindow="14060" windowWidth="32960" windowHeight="11480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="14060" windowWidth="32960" windowHeight="11480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fund {id}" sheetId="2" r:id="rId1"/>
@@ -128,12 +128,6 @@
     <t>{empty}</t>
   </si>
   <si>
-    <t>{child[0]:linked}</t>
-  </si>
-  <si>
-    <t>{child[2]}</t>
-  </si>
-  <si>
     <t>=I7-J7</t>
   </si>
   <si>
@@ -167,13 +161,19 @@
     <t>{parent.name} wiki</t>
   </si>
   <si>
-    <t>{child[1]:linked}</t>
-  </si>
-  <si>
     <t>{edit:linked}</t>
   </si>
   <si>
     <t>{edit:unlinked}</t>
+  </si>
+  <si>
+    <t>{child[ID]:linked}</t>
+  </si>
+  <si>
+    <t>{child[DESCRIPTION]:linked}</t>
+  </si>
+  <si>
+    <t>{child[DATE]}</t>
   </si>
 </sst>
 </file>
@@ -831,8 +831,8 @@
   </sheetPr>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -847,7 +847,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -887,7 +887,7 @@
         <v>22</v>
       </c>
       <c r="P2" s="47" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -919,7 +919,7 @@
         <v>23</v>
       </c>
       <c r="P3" s="48" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1031,46 +1031,46 @@
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="46" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="H7" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="J7" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="40" t="s">
+      <c r="K7" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="L7" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="40" t="s">
+      <c r="N7" s="41" t="s">
         <v>40</v>
-      </c>
-      <c r="L7" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="41" t="s">
-        <v>42</v>
       </c>
       <c r="O7" s="42" t="s">
         <v>30</v>

--- a/resources/xlsx_templates/fond.xlsx
+++ b/resources/xlsx_templates/fond.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbrandt/code/birddog/resources/xlsx_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979D752F-529C-7547-BF95-08F7C57CEEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3127FA-60C0-B145-AABE-94D9B4511C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="14060" windowWidth="32960" windowHeight="11480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="11900" windowWidth="32960" windowHeight="11480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fund {id}" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>source:</t>
   </si>
@@ -113,9 +113,6 @@
     <t>{description}</t>
   </si>
   <si>
-    <t>{lastmod}</t>
-  </si>
-  <si>
     <t>{url:linked}</t>
   </si>
   <si>
@@ -174,6 +171,15 @@
   </si>
   <si>
     <t>{child[DATE]}</t>
+  </si>
+  <si>
+    <t>{lastmod:date}</t>
+  </si>
+  <si>
+    <t>ref. version</t>
+  </si>
+  <si>
+    <t>{refmod:date}</t>
   </si>
 </sst>
 </file>
@@ -294,15 +300,15 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1" tint="0.499984740745262"/>
       <name val="Calibri"/>
@@ -831,8 +837,8 @@
   </sheetPr>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -847,7 +853,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -887,7 +893,7 @@
         <v>22</v>
       </c>
       <c r="P2" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -899,14 +905,14 @@
         <v>12</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="11"/>
@@ -919,7 +925,7 @@
         <v>23</v>
       </c>
       <c r="P3" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -929,8 +935,12 @@
       <c r="B4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="E4" s="16"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -951,34 +961,34 @@
         <v>1</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N5" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O5" s="16"/>
     </row>
@@ -1031,49 +1041,49 @@
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="C7" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="45" t="s">
-        <v>46</v>
-      </c>
       <c r="D7" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="40" t="s">
+      <c r="M7" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="41" t="s">
+      <c r="N7" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="41" t="s">
-        <v>40</v>
-      </c>
       <c r="O7" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1095,7 +1105,7 @@
     </row>
     <row r="9" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>19</v>

--- a/resources/xlsx_templates/fond.xlsx
+++ b/resources/xlsx_templates/fond.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbrandt/code/birddog/resources/xlsx_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3127FA-60C0-B145-AABE-94D9B4511C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B92EBBC-835C-D441-AB76-A04D12020AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="11900" windowWidth="32960" windowHeight="11480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>source:</t>
   </si>
@@ -129,30 +129,6 @@
   </si>
   <si>
     <t>=E7-F7</t>
-  </si>
-  <si>
-    <t>='{child:sheetname}'!H5</t>
-  </si>
-  <si>
-    <t>='{child:sheetname}'!I5</t>
-  </si>
-  <si>
-    <t>='{child:sheetname}'!J5</t>
-  </si>
-  <si>
-    <t>='{child:sheetname}'!K5</t>
-  </si>
-  <si>
-    <t>='{child:sheetname}'!L5</t>
-  </si>
-  <si>
-    <t>='{child:sheetname}'!M5</t>
-  </si>
-  <si>
-    <t>='{child:sheetname}'!N5</t>
-  </si>
-  <si>
-    <t>='{child:sheetname}'!F18</t>
   </si>
   <si>
     <t>{parent.name} wiki</t>
@@ -477,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -598,9 +574,6 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -838,7 +811,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P3"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -853,7 +826,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -889,11 +862,11 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="47" t="s">
-        <v>41</v>
+      <c r="P2" s="46" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -905,7 +878,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="12" t="s">
@@ -921,11 +894,11 @@
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
       <c r="N3" s="11"/>
-      <c r="O3" s="44" t="s">
+      <c r="O3" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="48" t="s">
-        <v>42</v>
+      <c r="P3" s="47" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -936,10 +909,10 @@
         <v>21</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="11"/>
@@ -1040,49 +1013,49 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>45</v>
+      <c r="A7" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>37</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>34</v>
+      <c r="E7" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="H7" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="40" t="s">
-        <v>37</v>
+      <c r="I7" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="L7" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" s="42" t="s">
+      <c r="M7" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="41" t="s">
         <v>29</v>
       </c>
     </row>

--- a/resources/xlsx_templates/fond.xlsx
+++ b/resources/xlsx_templates/fond.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbrandt/code/birddog/resources/xlsx_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B92EBBC-835C-D441-AB76-A04D12020AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D3A9CF-E2FF-254B-A52A-5DD7664F1C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11900" windowWidth="32960" windowHeight="11480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7940" yWindow="940" windowWidth="44220" windowHeight="34880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fund {id}" sheetId="2" r:id="rId1"/>
+    <sheet name="Fund {id}" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>source:</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>updated:</t>
-  </si>
-  <si>
     <t>Fund link(s):</t>
   </si>
   <si>
@@ -95,12 +92,6 @@
     <t># opuses listed</t>
   </si>
   <si>
-    <t>DATE RANGE</t>
-  </si>
-  <si>
-    <t>xxxxx</t>
-  </si>
-  <si>
     <t>{edit:added}</t>
   </si>
   <si>
@@ -113,9 +104,6 @@
     <t>{description}</t>
   </si>
   <si>
-    <t>{url:linked}</t>
-  </si>
-  <si>
     <t>=ROWS(__COL__)</t>
   </si>
   <si>
@@ -131,9 +119,6 @@
     <t>=E7-F7</t>
   </si>
   <si>
-    <t>{parent.name} wiki</t>
-  </si>
-  <si>
     <t>{edit:linked}</t>
   </si>
   <si>
@@ -152,17 +137,35 @@
     <t>{lastmod:date}</t>
   </si>
   <si>
-    <t>ref. version</t>
-  </si>
-  <si>
     <t>{refmod:date}</t>
+  </si>
+  <si>
+    <t>wiki</t>
+  </si>
+  <si>
+    <t>change date:</t>
+  </si>
+  <si>
+    <t>reference date:</t>
+  </si>
+  <si>
+    <t>YYYY-YYYY</t>
+  </si>
+  <si>
+    <t>{parent.name}</t>
+  </si>
+  <si>
+    <t>{unquoted_url:linked}</t>
+  </si>
+  <si>
+    <t>xxxxxx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,13 +243,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -262,14 +258,6 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9900FF"/>
       <name val="Calibri"/>
@@ -290,6 +278,27 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -372,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -421,64 +430,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -512,10 +472,10 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -533,26 +493,23 @@
     <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -560,10 +517,10 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -572,7 +529,7 @@
     <xf numFmtId="49" fontId="4" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -584,12 +541,80 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -804,302 +829,415 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:P9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E840A76-1A21-854F-9DD9-64E53453972A}">
+  <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="14" width="14.5" customWidth="1"/>
-    <col min="15" max="15" width="35.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" customWidth="1"/>
+    <col min="15" max="15" width="40.1640625" customWidth="1"/>
+    <col min="16" max="20" width="9.1640625" customWidth="1"/>
+    <col min="21" max="28" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:28" ht="28" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="44"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+    </row>
+    <row r="2" spans="1:28" ht="19" x14ac:dyDescent="0.2">
+      <c r="A2" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+    </row>
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+    </row>
+    <row r="5" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="9"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+    </row>
+    <row r="6" spans="1:28" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
+      <c r="AA6" s="57"/>
+      <c r="AB6" s="57"/>
+    </row>
+    <row r="7" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="5"/>
+      <c r="D7" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
     </row>
-    <row r="2" spans="1:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="46" t="s">
-        <v>33</v>
-      </c>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="43" t="s">
+    <row r="9" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="47" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="16"/>
-    </row>
-    <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="16"/>
-    </row>
-    <row r="6" spans="1:16" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="28" t="s">
+      <c r="B9" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" s="41" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-    </row>
-    <row r="9" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" display="https://uk.wikisource.org/wiki/Архів:ЦДІАК/301" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://uk.wikisource.org/wiki/Архів:ЦДІАК/301" xr:uid="{5E4D837F-1875-864C-BFD9-449B7B93E64E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/xlsx_templates/fond.xlsx
+++ b/resources/xlsx_templates/fond.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbrandt/code/birddog/resources/xlsx_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D3A9CF-E2FF-254B-A52A-5DD7664F1C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7449C178-80D7-1A43-87FE-072B96DA163B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7940" yWindow="940" windowWidth="44220" windowHeight="34880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7940" yWindow="940" windowWidth="35320" windowHeight="8660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fund {id}" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>source:</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>{lastmod:date}</t>
-  </si>
-  <si>
-    <t>{refmod:date}</t>
   </si>
   <si>
     <t>wiki</t>
@@ -833,7 +830,7 @@
   <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -847,11 +844,11 @@
   <sheetData>
     <row r="1" spans="1:28" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="42"/>
@@ -863,16 +860,14 @@
       <c r="I1" s="38"/>
       <c r="J1" s="42"/>
       <c r="K1" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="46"/>
+      <c r="M1" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="N1" s="47" t="s">
         <v>33</v>
-      </c>
-      <c r="M1" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="47" t="s">
-        <v>34</v>
       </c>
       <c r="O1" s="34" t="s">
         <v>19</v>
@@ -927,14 +922,14 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="5"/>
@@ -968,7 +963,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
